--- a/Complaints_internet/dataset_internet.xlsx
+++ b/Complaints_internet/dataset_internet.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:Y78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="Y24" sqref="Y24"/>
@@ -5103,6 +5103,4899 @@
         </is>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>624042741830054</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>C54F7C3A0A1BE70B738274D833C1DC5A</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>237668608391</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>n-mms</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>624042741830054</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>C54F7C3A0A1BE70B738274D833C1DC5A</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>237668608391</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>n-mms</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=af2fdfdf-204f-41f2-8105-6aa062c582d5, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=08198b8d-24c8-4a63-b38d-1e451ea993ff, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=2dba31ec-e74b-444a-94ee-ecfd3626af46, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=8f0406ab-f008-4178-a246-9db36597aa34, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=0f09bb9d-7f26-43f7-8c97-4d8906f8f08a, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=77e1a11e-9680-4768-b5d1-2ddc78ff758c, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=d4219132-0e77-44ff-b8c2-88b0ed4baef0, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=debae303-9f90-480d-b13a-50e6b04f8be8, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=3604fe5f-b235-4ab0-ab29-b7bb39779e67, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>624042719604575</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CADE49F922E4C59399D4BA0ED1F3EEA2</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>237667066226</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>b-connect</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=bd747a3d-d995-4213-96fb-2d0f0757b21b, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>624042719604575</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>CADE49F922E4C59399D4BA0ED1F3EEA2</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>237667066226</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>b-connect</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=ed968157-1279-4ec4-adba-1af828455fd4, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>624042741830054</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>C54F7C3A0A1BE70B738274D833C1DC5A</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>237668608391</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>n-mms</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>624042719604575</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>CADE49F922E4C59399D4BA0ED1F3EEA2</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>237667066226</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>b-connect</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=10f8eb9c-f017-4b2d-bcdd-0cca42f33200, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>624042741830054</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>C54F7C3A0A1BE70B738274D833C1DC5A</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>237668608391</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>n-mms</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>624042741830088</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>E115120ECC5F6A23514465853CA96D1F</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>237668608440</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>n-mms</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>624042741829977</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>63A5D4591DB73211740092C97971137F</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>237668608271</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>n-mms</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>624042741769353</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>CE31AF366198601FC679CE7E8EC03C05</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>237667720297</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>n-mms</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>624042741769353</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>CE31AF366198601FC679CE7E8EC03C05</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>237667720297</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>n-mms</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>624042741769353</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>CE31AF366198601FC679CE7E8EC03C05</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>237667720297</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>n-mms</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=4f7263e4-d518-48c2-89be-b64f325c32e4, errorCode=34, errorMessage= error result (34),entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>624042741830054</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>C54F7C3A0A1BE70B738274D833C1DC5A</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>237668608391</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>n-mms</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Complaints_internet/dataset_internet.xlsx
+++ b/Complaints_internet/dataset_internet.xlsx
@@ -489,7 +489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y148"/>
+  <dimension ref="A1:Y197"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L80" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="R91" sqref="R91"/>
@@ -19241,55 +19241,6045 @@
         </is>
       </c>
     </row>
-    <row r="149" ht="15" customHeight="1"/>
-    <row r="150" ht="15" customHeight="1"/>
-    <row r="151" ht="15" customHeight="1"/>
-    <row r="152" ht="15" customHeight="1"/>
-    <row r="153" ht="15" customHeight="1"/>
-    <row r="154" ht="15" customHeight="1"/>
-    <row r="155" ht="15" customHeight="1"/>
-    <row r="156" ht="15" customHeight="1"/>
-    <row r="157" ht="15" customHeight="1"/>
-    <row r="158" ht="15" customHeight="1"/>
-    <row r="159" ht="15" customHeight="1"/>
-    <row r="160" ht="15" customHeight="1"/>
-    <row r="161" ht="15" customHeight="1"/>
-    <row r="162" ht="15" customHeight="1"/>
-    <row r="163" ht="15" customHeight="1"/>
-    <row r="164" ht="15" customHeight="1"/>
-    <row r="165" ht="15" customHeight="1"/>
-    <row r="166" ht="15" customHeight="1"/>
-    <row r="167" ht="15" customHeight="1"/>
-    <row r="168" ht="15" customHeight="1"/>
-    <row r="169" ht="15" customHeight="1"/>
-    <row r="170" ht="15" customHeight="1"/>
-    <row r="171" ht="15" customHeight="1"/>
-    <row r="172" ht="15" customHeight="1"/>
-    <row r="173" ht="15" customHeight="1"/>
-    <row r="174" ht="15" customHeight="1"/>
-    <row r="175" ht="15" customHeight="1"/>
-    <row r="176" ht="15" customHeight="1"/>
-    <row r="177" ht="15" customHeight="1"/>
-    <row r="178" ht="15" customHeight="1"/>
-    <row r="179" ht="15" customHeight="1"/>
-    <row r="180" ht="15" customHeight="1"/>
-    <row r="181" ht="15" customHeight="1"/>
-    <row r="182" ht="15" customHeight="1"/>
-    <row r="183" ht="15" customHeight="1"/>
-    <row r="184" ht="15" customHeight="1"/>
-    <row r="185" ht="15" customHeight="1"/>
-    <row r="186" ht="15" customHeight="1"/>
-    <row r="187" ht="15" customHeight="1"/>
-    <row r="188" ht="15" customHeight="1"/>
-    <row r="189" ht="15" customHeight="1"/>
-    <row r="190" ht="15" customHeight="1"/>
-    <row r="191" ht="15" customHeight="1"/>
-    <row r="192" ht="15" customHeight="1"/>
-    <row r="193" ht="15" customHeight="1"/>
-    <row r="194" ht="15" customHeight="1"/>
-    <row r="195" ht="15" customHeight="1"/>
-    <row r="196" ht="15" customHeight="1"/>
-    <row r="197" ht="15" customHeight="1"/>
+    <row r="149" ht="15" customHeight="1">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X149" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=a1fecc39-3e81-47a6-b477-adbff92840be, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="150" ht="15" customHeight="1">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>624042740135541</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>6E74AEE4CF51FAA3D681BDB0A28AAD7F</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>237668512883</t>
+        </is>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>n-lit</t>
+        </is>
+      </c>
+      <c r="W150" t="inlineStr">
+        <is>
+          <t>8627720325341778</t>
+        </is>
+      </c>
+      <c r="X150" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=a1fecc39-3e81-47a6-b477-adbff92840be, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="151" ht="15" customHeight="1">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>624042740135541</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>6E74AEE4CF51FAA3D681BDB0A28AAD7F</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>237668512883</t>
+        </is>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>n-lit</t>
+        </is>
+      </c>
+      <c r="W151" t="inlineStr">
+        <is>
+          <t>8627720325341778</t>
+        </is>
+      </c>
+      <c r="X151" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=a1fecc39-3e81-47a6-b477-adbff92840be, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="152" ht="15" customHeight="1">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>624042740135541</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>6E74AEE4CF51FAA3D681BDB0A28AAD7F</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>237668512883</t>
+        </is>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>n-lit</t>
+        </is>
+      </c>
+      <c r="W152" t="inlineStr">
+        <is>
+          <t>8627720325341778</t>
+        </is>
+      </c>
+      <c r="X152" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=a1fecc39-3e81-47a6-b477-adbff92840be, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="153" ht="15" customHeight="1">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>81FD6F7B423F4725B8F1C1E4FFDDCE93</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W153" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="X153" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=a1fecc39-3e81-47a6-b477-adbff92840be, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="154" ht="15" customHeight="1">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>81FD6F7B423F4725B8F1C1E4FFDDCE93</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W154" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="X154" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=a1fecc39-3e81-47a6-b477-adbff92840be, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="155" ht="15" customHeight="1">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>81FD6F7B423F4725B8F1C1E4FFDDCE93</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W155" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="X155" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=a1fecc39-3e81-47a6-b477-adbff92840be, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="156" ht="15" customHeight="1">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>624042740135541</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>6E74AEE4CF51FAA3D681BDB0A28AAD7F</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>237668512883</t>
+        </is>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>n-lit</t>
+        </is>
+      </c>
+      <c r="W156" t="inlineStr">
+        <is>
+          <t>8627720325341778</t>
+        </is>
+      </c>
+      <c r="X156" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=a1fecc39-3e81-47a6-b477-adbff92840be, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="157" ht="15" customHeight="1">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>81FD6F7B423F4725B8F1C1E4FFDDCE93</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W157" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="X157" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=a1fecc39-3e81-47a6-b477-adbff92840be, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="158" ht="15" customHeight="1">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>81FD6F7B423F4725B8F1C1E4FFDDCE93</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V158" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W158" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="X158" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=a5a3eb94-ac05-4aee-9525-f4a044b02380, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="159" ht="15" customHeight="1">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>81FD6F7B423F4725B8F1C1E4FFDDCE93</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V159" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W159" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="X159" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=1a8b9831-67b7-439b-8d16-598159645840, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="160" ht="15" customHeight="1">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V160" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W160" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X160" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=1a8b9831-67b7-439b-8d16-598159645840, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="161" ht="15" customHeight="1">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T161" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V161" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W161" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X161" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=ac8cfbd4-ea04-4d9b-9ed6-7fcabc6dc1d1, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="162" ht="15" customHeight="1">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V162" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W162" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X162" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=1a8b9831-67b7-439b-8d16-598159645840, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="163" ht="15" customHeight="1">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V163" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W163" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X163" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y163" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="164" ht="15" customHeight="1">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V164" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W164" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X164" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=1a8b9831-67b7-439b-8d16-598159645840, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="165" ht="15" customHeight="1">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>81FD6F7B423F4725B8F1C1E4FFDDCE93</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W165" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="X165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y165" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="166" ht="15" customHeight="1">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>81FD6F7B423F4725B8F1C1E4FFDDCE93</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V166" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W166" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="X166" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=1a8b9831-67b7-439b-8d16-598159645840, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="167" ht="15" customHeight="1">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V167" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W167" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y167" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="168" ht="15" customHeight="1">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V168" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W168" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X168" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=fd431726-9525-4641-a323-5452bdc9378c, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="169" ht="15" customHeight="1">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W169" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X169" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=fd431726-9525-4641-a323-5452bdc9378c, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="170" ht="15" customHeight="1">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W170" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X170" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y170" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="171" ht="15" customHeight="1">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X171" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=f16f2d41-50e9-4593-8653-6147eeda688d, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="172" ht="15" customHeight="1">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W172" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X172" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y172" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="173" ht="15" customHeight="1">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>624042740135541</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>6E74AEE4CF51FAA3D681BDB0A28AAD7F</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>237668512883</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>n-lit</t>
+        </is>
+      </c>
+      <c r="W173" t="inlineStr">
+        <is>
+          <t>8627720325341778</t>
+        </is>
+      </c>
+      <c r="X173" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y173" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="174" ht="15" customHeight="1">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>624042740135541</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>6E74AEE4CF51FAA3D681BDB0A28AAD7F</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>237668512883</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>n-lit</t>
+        </is>
+      </c>
+      <c r="W174" t="inlineStr">
+        <is>
+          <t>8627720325341778</t>
+        </is>
+      </c>
+      <c r="X174" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y174" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="175" ht="15" customHeight="1">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>624042740135541</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>6E74AEE4CF51FAA3D681BDB0A28AAD7F</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>237668512883</t>
+        </is>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V175" t="inlineStr">
+        <is>
+          <t>n-lit</t>
+        </is>
+      </c>
+      <c r="W175" t="inlineStr">
+        <is>
+          <t>8627720325341778</t>
+        </is>
+      </c>
+      <c r="X175" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=cf7196ca-abe7-40e0-8f4a-26f17844904a, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="176" ht="15" customHeight="1">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W176" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X176" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=cf7196ca-abe7-40e0-8f4a-26f17844904a, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="177" ht="15" customHeight="1">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>624042740135541</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>6E74AEE4CF51FAA3D681BDB0A28AAD7F</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>237668512883</t>
+        </is>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>n-lit</t>
+        </is>
+      </c>
+      <c r="W177" t="inlineStr">
+        <is>
+          <t>8627720325341778</t>
+        </is>
+      </c>
+      <c r="X177" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=cf7196ca-abe7-40e0-8f4a-26f17844904a, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="178" ht="15" customHeight="1">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X178" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=7ff78394-3fe6-4fad-aab8-7c1b2ed44ebf, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="179" ht="15" customHeight="1">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W179" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="180" ht="15" customHeight="1">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V180" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W180" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="181" ht="15" customHeight="1">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V181" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W181" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X181" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=2c99d653-7fe6-49b0-ac43-edfa62956cbd, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="182" ht="15" customHeight="1">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V182" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W182" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X182" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=2c99d653-7fe6-49b0-ac43-edfa62956cbd, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="183" ht="15" customHeight="1">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V183" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W183" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="184" ht="15" customHeight="1">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V184" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W184" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X184" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="185" ht="15" customHeight="1">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V185" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W185" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X185" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=ebee11cd-681e-485b-9cd7-3d7780f69757, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="186" ht="15" customHeight="1">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W186" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+    </row>
+    <row r="187" ht="15" customHeight="1">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W187" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X187" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="188" ht="15" customHeight="1">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W188" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="189" ht="15" customHeight="1">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W189" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X189" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=e48833ed-4899-4a46-98cc-c62fd47728b0, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="190" ht="15" customHeight="1">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>624042702533402</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>472C582453C2E0F104F47FDEC1B66E82</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>237669800046</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>QoS1</t>
+        </is>
+      </c>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t>n-mms</t>
+        </is>
+      </c>
+      <c r="W190" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X190" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="191" ht="15" customHeight="1">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V191" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W191" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X191" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="192" ht="15" customHeight="1">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V192" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W192" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X192" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=77163bbd-a9ae-46d9-a6b9-3823320ecc95, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="193" ht="15" customHeight="1">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>624042740135541</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>6E74AEE4CF51FAA3D681BDB0A28AAD7F</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>237668512883</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>n-lit</t>
+        </is>
+      </c>
+      <c r="W193" t="inlineStr">
+        <is>
+          <t>8627720325341778</t>
+        </is>
+      </c>
+      <c r="X193" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=77163bbd-a9ae-46d9-a6b9-3823320ecc95, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="194" ht="15" customHeight="1">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>624042740135541</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>6E74AEE4CF51FAA3D681BDB0A28AAD7F</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>237668512883</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V194" t="inlineStr">
+        <is>
+          <t>n-lit</t>
+        </is>
+      </c>
+      <c r="W194" t="inlineStr">
+        <is>
+          <t>8627720325341778</t>
+        </is>
+      </c>
+      <c r="X194" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="195" ht="15" customHeight="1">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>81FD6F7B423F4725B8F1C1E4FFDDCE93</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V195" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W195" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="X195" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="196" ht="15" customHeight="1">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>81FD6F7B423F4725B8F1C1E4FFDDCE93</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V196" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W196" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="X196" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=2f79c0fa-0bb1-4b4f-87f6-12ae22bda03d, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="197" ht="15" customHeight="1">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>81FD6F7B423F4725B8F1C1E4FFDDCE93</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V197" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W197" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="X197" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=2f79c0fa-0bb1-4b4f-87f6-12ae22bda03d, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
     <row r="198" ht="15" customHeight="1"/>
     <row r="199" ht="15" customHeight="1"/>
     <row r="200" ht="15" customHeight="1"/>

--- a/Complaints_internet/dataset_internet.xlsx
+++ b/Complaints_internet/dataset_internet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="6000" windowWidth="24000" windowHeight="9585" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="6600" windowWidth="24000" windowHeight="9585" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -117,13 +117,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,10 +492,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y148"/>
+  <dimension ref="A1:Y189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L80" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R91" sqref="R91"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="15.75" thickBottom="1"/>
@@ -515,10 +518,11 @@
     <col width="7.42578125" bestFit="1" customWidth="1" style="1" min="20" max="20"/>
     <col width="10.140625" bestFit="1" customWidth="1" style="1" min="21" max="21"/>
     <col width="19.42578125" bestFit="1" customWidth="1" style="1" min="22" max="22"/>
-    <col width="11.7109375" customWidth="1" style="1" min="23" max="24"/>
+    <col width="11.7109375" customWidth="1" style="1" min="23" max="23"/>
+    <col width="187.28515625" bestFit="1" customWidth="1" style="1" min="24" max="24"/>
     <col width="109.5703125" bestFit="1" customWidth="1" style="1" min="25" max="25"/>
-    <col width="11.7109375" customWidth="1" style="1" min="26" max="29"/>
-    <col width="11.7109375" customWidth="1" style="1" min="30" max="16384"/>
+    <col width="11.7109375" customWidth="1" style="1" min="26" max="30"/>
+    <col width="11.7109375" customWidth="1" style="1" min="31" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -19241,47 +19245,5169 @@
         </is>
       </c>
     </row>
-    <row r="149" ht="15" customHeight="1"/>
-    <row r="150" ht="15" customHeight="1"/>
-    <row r="151" ht="15" customHeight="1"/>
-    <row r="152" ht="15" customHeight="1"/>
-    <row r="153" ht="15" customHeight="1"/>
-    <row r="154" ht="15" customHeight="1"/>
-    <row r="155" ht="15" customHeight="1"/>
-    <row r="156" ht="15" customHeight="1"/>
-    <row r="157" ht="15" customHeight="1"/>
-    <row r="158" ht="15" customHeight="1"/>
-    <row r="159" ht="15" customHeight="1"/>
-    <row r="160" ht="15" customHeight="1"/>
-    <row r="161" ht="15" customHeight="1"/>
-    <row r="162" ht="15" customHeight="1"/>
-    <row r="163" ht="15" customHeight="1"/>
-    <row r="164" ht="15" customHeight="1"/>
-    <row r="165" ht="15" customHeight="1"/>
-    <row r="166" ht="15" customHeight="1"/>
-    <row r="167" ht="15" customHeight="1"/>
-    <row r="168" ht="15" customHeight="1"/>
-    <row r="169" ht="15" customHeight="1"/>
-    <row r="170" ht="15" customHeight="1"/>
-    <row r="171" ht="15" customHeight="1"/>
-    <row r="172" ht="15" customHeight="1"/>
-    <row r="173" ht="15" customHeight="1"/>
-    <row r="174" ht="15" customHeight="1"/>
-    <row r="175" ht="15" customHeight="1"/>
-    <row r="176" ht="15" customHeight="1"/>
-    <row r="177" ht="15" customHeight="1"/>
-    <row r="178" ht="15" customHeight="1"/>
-    <row r="179" ht="15" customHeight="1"/>
-    <row r="180" ht="15" customHeight="1"/>
-    <row r="181" ht="15" customHeight="1"/>
-    <row r="182" ht="15" customHeight="1"/>
-    <row r="183" ht="15" customHeight="1"/>
-    <row r="184" ht="15" customHeight="1"/>
-    <row r="185" ht="15" customHeight="1"/>
-    <row r="186" ht="15" customHeight="1"/>
-    <row r="187" ht="15" customHeight="1"/>
-    <row r="188" ht="15" customHeight="1"/>
-    <row r="189" ht="15" customHeight="1"/>
+    <row r="149" ht="15" customHeight="1">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>624042747101700</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>DC036218C9DD7679C1384681BDF5050E</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>237669887445</t>
+        </is>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W149" t="inlineStr">
+        <is>
+          <t>3591226058296078</t>
+        </is>
+      </c>
+      <c r="X149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y149" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="150" ht="15" customHeight="1">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>624042747101696</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>CA5F558217A681440B3AD715C8450A29</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>237669887440</t>
+        </is>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W150" t="inlineStr">
+        <is>
+          <t>3598120972457001</t>
+        </is>
+      </c>
+      <c r="X150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y150" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="151" ht="15" customHeight="1">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X151" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=0fc52f41-57af-42fa-a37b-deac698bc53b, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="152" ht="15" customHeight="1">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>624042747101700</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>DC036218C9DD7679C1384681BDF5050E</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>237669887445</t>
+        </is>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W152" t="inlineStr">
+        <is>
+          <t>3591226058296078</t>
+        </is>
+      </c>
+      <c r="X152" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y152" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="153" ht="15" customHeight="1">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>624042747101697</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>55A09BF9C6914CDBAFF2FF1F79DF7490</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>237669887441</t>
+        </is>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W153" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X153" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y153" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="154" ht="15" customHeight="1">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>624042747101433</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>21687DD58AB352EB7ECFF072979B7A12</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>237669887045</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W154" t="inlineStr">
+        <is>
+          <t>3575510947449501</t>
+        </is>
+      </c>
+      <c r="X154" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y154" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="155" ht="15" customHeight="1">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X155" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=f6f37fc8-306a-4273-b3e9-ae8a155b7bf7, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="156" ht="15" customHeight="1">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y156" t="inlineStr">
+        <is>
+          <t>odbgprs:Barring GPRS is not defined;refPdpContextName:APN is not defined;qosProfile:QoS is not defined;</t>
+        </is>
+      </c>
+    </row>
+    <row r="157" ht="15" customHeight="1">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W157" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X157" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y157" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="158" ht="15" customHeight="1">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V158" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W158" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X158" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=a2d2b496-e6ee-438b-94c9-e935a4288a37, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="159" ht="15" customHeight="1">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V159" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W159" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X159" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=a2d2b496-e6ee-438b-94c9-e935a4288a37, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="160" ht="15" customHeight="1">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V160" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W160" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X160" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y160" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="161" ht="15" customHeight="1">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V161" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W161" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X161" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=24fefcf8-b066-4e02-9a0a-ff9d333ef836, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="162" ht="15" customHeight="1">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V162" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W162" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X162" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=24fefcf8-b066-4e02-9a0a-ff9d333ef836, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="163" ht="15" customHeight="1">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V163" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W163" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X163" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y163" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="164" ht="15" customHeight="1">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X164" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=6eaa8efc-6e26-4aaa-be88-54a7868b167f, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="165" ht="15" customHeight="1">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X165" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=cf4a9029-3d33-4867-96dd-faf9580e40ab, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="166" ht="15" customHeight="1">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V166" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W166" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X166" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y166" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="167" ht="15" customHeight="1">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X167" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=4a498f0c-d24b-4749-8365-27881e9ed60e, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="168" ht="15" customHeight="1">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X168" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=2061d4d3-9f9f-4cf3-81f9-8d28559f8595, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="169" ht="15" customHeight="1">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W169" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X169" s="6" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=2061d4d3-9f9f-4cf3-81f9-8d28559f8595, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="170" ht="15" customHeight="1">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W170" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X170" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y170" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="171" ht="15" customHeight="1">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V171" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W171" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y171" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="172" ht="15" customHeight="1">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T172" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W172" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X172" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=0755b9f1-8d8c-4a36-bd98-7c0afc8d8274, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="173" ht="15" customHeight="1">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>624042719604575</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>CADE49F922E4C59399D4BA0ED1F3EEA2</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>237667066226</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>b-connect</t>
+        </is>
+      </c>
+      <c r="W173" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X173" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y173" t="inlineStr">
+        <is>
+          <t>refPdpContextName:APN=b-connect, change to n-internet;</t>
+        </is>
+      </c>
+    </row>
+    <row r="174" ht="15" customHeight="1">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T174" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W174" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X174" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=e5fd3513-b4b2-4666-b023-2ab06bfa060b, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="175" ht="15" customHeight="1">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T175" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V175" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W175" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X175" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=a9cf3b58-5740-4e78-98d2-78dd02b66e89, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+      <c r="Y175" t="inlineStr">
+        <is>
+          <t>ldapResponse:Unknow Subscriber;</t>
+        </is>
+      </c>
+    </row>
+    <row r="176" ht="15" customHeight="1">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W176" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X176" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y176" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="177" ht="15" customHeight="1">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W177" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X177" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y177" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="178" ht="15" customHeight="1">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X178" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=20eb5e34-0f49-437c-bd86-18a818dcd47f, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+      <c r="Y178" t="inlineStr">
+        <is>
+          <t>ldapResponse:Unknow Subscriber;</t>
+        </is>
+      </c>
+    </row>
+    <row r="179" ht="15" customHeight="1">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X179" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=a1ba8282-8d3f-4195-9110-2f170066a3ef, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+      <c r="Y179" t="inlineStr">
+        <is>
+          <t>ldapResponse:Unknow Subscriber;</t>
+        </is>
+      </c>
+    </row>
+    <row r="180" ht="15" customHeight="1">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X180" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=2a0940bf-bb4f-4f1e-96cb-c65ad0b69fb8, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+      <c r="Y180" t="inlineStr">
+        <is>
+          <t>ldapResponse:Unknow Subscriber;</t>
+        </is>
+      </c>
+    </row>
+    <row r="181" ht="15" customHeight="1">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>624042741830054</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>C54F7C3A0A1BE70B738274D833C1DC5A</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>237668608391</t>
+        </is>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V181" t="inlineStr">
+        <is>
+          <t>n-nwt</t>
+        </is>
+      </c>
+      <c r="W181" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X181" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y181" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="182" ht="15" customHeight="1">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>624042719604575</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>CADE49F922E4C59399D4BA0ED1F3EEA2</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>237667066226</t>
+        </is>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V182" t="inlineStr">
+        <is>
+          <t>b-connect</t>
+        </is>
+      </c>
+      <c r="W182" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X182" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y182" t="inlineStr">
+        <is>
+          <t>refPdpContextName:APN=b-connect, change to n-internet;</t>
+        </is>
+      </c>
+    </row>
+    <row r="183" ht="15" customHeight="1">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X183" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=22e68eba-6009-4492-88f3-dce5743339c7, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+      <c r="Y183" t="inlineStr">
+        <is>
+          <t>ldapResponse:Unknow Subscriber;</t>
+        </is>
+      </c>
+    </row>
+    <row r="184" ht="15" customHeight="1">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V184" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W184" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X184" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=22e68eba-6009-4492-88f3-dce5743339c7, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+      <c r="Y184" t="inlineStr">
+        <is>
+          <t>ldapResponse:Unknow Subscriber;</t>
+        </is>
+      </c>
+    </row>
+    <row r="185" ht="15" customHeight="1">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V185" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W185" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X185" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y185" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="186" ht="15" customHeight="1">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X186" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=45c2ac1b-0bfc-46fe-823e-29435efa7f1d, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+      <c r="Y186" t="inlineStr">
+        <is>
+          <t>ldapResponse:Unknow Subscriber;</t>
+        </is>
+      </c>
+    </row>
+    <row r="187" ht="15" customHeight="1">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W187" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X187" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y187" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="188" ht="15" customHeight="1">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X188" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=a6ca6241-80d4-4bf6-8709-f34701e325ab, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+      <c r="Y188" t="inlineStr">
+        <is>
+          <t>ldapResponse:Unknow Subscriber;</t>
+        </is>
+      </c>
+    </row>
+    <row r="189" ht="15" customHeight="1">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W189" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X189" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y189" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
     <row r="190" ht="15" customHeight="1"/>
     <row r="191" ht="15" customHeight="1"/>
     <row r="192" ht="15" customHeight="1"/>

--- a/Complaints_internet/dataset_internet.xlsx
+++ b/Complaints_internet/dataset_internet.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y270"/>
+  <dimension ref="A1:Y271"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
@@ -34713,7 +34713,133 @@
         </is>
       </c>
     </row>
-    <row r="271" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>624042700253500</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>46C9AE1E3913D2F70E351A8946BF2C74</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>237661341827</t>
+        </is>
+      </c>
+      <c r="S271" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T271" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U271" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V271" t="inlineStr">
+        <is>
+          <t>b-connect</t>
+        </is>
+      </c>
+      <c r="W271" t="inlineStr">
+        <is>
+          <t>8655500200407700</t>
+        </is>
+      </c>
+      <c r="X271" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y271" t="inlineStr">
+        <is>
+          <t>refPdpContextName:APN=b-connect, change to n-internet;actIMSIGprs:actIMSIGprs is false. Restart phone;</t>
+        </is>
+      </c>
+    </row>
     <row r="272" ht="15" customHeight="1"/>
     <row r="273" ht="15" customHeight="1"/>
     <row r="274" ht="15" customHeight="1"/>
